--- a/state_results/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
+++ b/state_results/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2009 - 2013</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2010 - 2014</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2011 - 2015</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2012 - 2016</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2013 - 2017</t>
@@ -3088,7 +3108,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -3524,7 +3548,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -3960,7 +3988,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -4396,7 +4428,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -4832,7 +4868,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
+++ b/state_results/Contact_Recreation/WhanganuiatTownBridge_de9755c7bd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="53">
   <si>
     <t>site name</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>Impact</t>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>350</v>
@@ -651,19 +657,19 @@
         <v>5577382</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -680,7 +686,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>350</v>
@@ -719,19 +725,19 @@
         <v>5577382</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -748,7 +754,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>350</v>
@@ -787,19 +793,19 @@
         <v>5577382</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -816,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>350</v>
@@ -855,19 +861,19 @@
         <v>5577382</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -884,7 +890,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>350</v>
@@ -923,19 +929,19 @@
         <v>5577382</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -952,16 +958,16 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>230</v>
       </c>
       <c r="G7">
-        <v>701.371512139752</v>
+        <v>687.629276109998</v>
       </c>
       <c r="H7">
-        <v>7594.86341048138</v>
+        <v>6564.19570824987</v>
       </c>
       <c r="I7">
         <v>3450</v>
@@ -991,19 +997,19 @@
         <v>5577382</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1020,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>230</v>
       </c>
       <c r="G8">
-        <v>701.371512139752</v>
+        <v>687.629276109998</v>
       </c>
       <c r="H8">
-        <v>7594.86341048138</v>
+        <v>6564.19570824987</v>
       </c>
       <c r="I8">
         <v>3450</v>
@@ -1059,19 +1065,19 @@
         <v>5577382</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1088,16 +1094,16 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>230</v>
       </c>
       <c r="G9">
-        <v>701.371512139752</v>
+        <v>687.629276109998</v>
       </c>
       <c r="H9">
-        <v>7594.86341048138</v>
+        <v>6564.19570824987</v>
       </c>
       <c r="I9">
         <v>3450</v>
@@ -1127,19 +1133,19 @@
         <v>5577382</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1156,16 +1162,16 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>230</v>
       </c>
       <c r="G10">
-        <v>701.371512139752</v>
+        <v>687.629276109998</v>
       </c>
       <c r="H10">
-        <v>7594.86341048138</v>
+        <v>6564.19570824987</v>
       </c>
       <c r="I10">
         <v>3450</v>
@@ -1195,19 +1201,19 @@
         <v>5577382</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1224,16 +1230,16 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>230</v>
       </c>
       <c r="G11">
-        <v>701.371512139752</v>
+        <v>687.629276109998</v>
       </c>
       <c r="H11">
-        <v>7594.86341048138</v>
+        <v>6564.19570824987</v>
       </c>
       <c r="I11">
         <v>3450</v>
@@ -1263,19 +1269,19 @@
         <v>5577382</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1292,16 +1298,16 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>275</v>
       </c>
       <c r="G12">
-        <v>763.333292715196</v>
+        <v>762.871876671613</v>
       </c>
       <c r="H12">
-        <v>7594.86341048138</v>
+        <v>7439.99195891141</v>
       </c>
       <c r="I12">
         <v>3600</v>
@@ -1331,19 +1337,19 @@
         <v>5577382</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1360,16 +1366,16 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>275</v>
       </c>
       <c r="G13">
-        <v>763.333292715196</v>
+        <v>762.871876671613</v>
       </c>
       <c r="H13">
-        <v>7594.86341048138</v>
+        <v>7439.99195891141</v>
       </c>
       <c r="I13">
         <v>3600</v>
@@ -1399,19 +1405,19 @@
         <v>5577382</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1428,16 +1434,16 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14">
         <v>275</v>
       </c>
       <c r="G14">
-        <v>763.333292715196</v>
+        <v>762.871876671613</v>
       </c>
       <c r="H14">
-        <v>7594.86341048138</v>
+        <v>7439.99195891141</v>
       </c>
       <c r="I14">
         <v>3600</v>
@@ -1467,19 +1473,19 @@
         <v>5577382</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1496,16 +1502,16 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15">
         <v>275</v>
       </c>
       <c r="G15">
-        <v>763.333292715196</v>
+        <v>762.871876671613</v>
       </c>
       <c r="H15">
-        <v>7594.86341048138</v>
+        <v>7439.99195891141</v>
       </c>
       <c r="I15">
         <v>3600</v>
@@ -1535,19 +1541,19 @@
         <v>5577382</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1564,16 +1570,16 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>275</v>
       </c>
       <c r="G16">
-        <v>763.333292715196</v>
+        <v>762.871876671613</v>
       </c>
       <c r="H16">
-        <v>7594.86341048138</v>
+        <v>7439.99195891141</v>
       </c>
       <c r="I16">
         <v>3600</v>
@@ -1603,19 +1609,19 @@
         <v>5577382</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1632,13 +1638,13 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>270</v>
       </c>
       <c r="G17">
-        <v>778.026848963867</v>
+        <v>777.654739251301</v>
       </c>
       <c r="H17">
         <v>7900</v>
@@ -1671,19 +1677,19 @@
         <v>5577382</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1700,13 +1706,13 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <v>270</v>
       </c>
       <c r="G18">
-        <v>778.026848963867</v>
+        <v>777.654739251301</v>
       </c>
       <c r="H18">
         <v>7900</v>
@@ -1739,19 +1745,19 @@
         <v>5577382</v>
       </c>
       <c r="R18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1768,13 +1774,13 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19">
         <v>270</v>
       </c>
       <c r="G19">
-        <v>778.026848963867</v>
+        <v>777.654739251301</v>
       </c>
       <c r="H19">
         <v>7900</v>
@@ -1807,19 +1813,19 @@
         <v>5577382</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1836,13 +1842,13 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>270</v>
       </c>
       <c r="G20">
-        <v>778.026848963867</v>
+        <v>777.654739251301</v>
       </c>
       <c r="H20">
         <v>7900</v>
@@ -1875,19 +1881,19 @@
         <v>5577382</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1904,13 +1910,13 @@
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <v>270</v>
       </c>
       <c r="G21">
-        <v>778.026848963867</v>
+        <v>777.654739251301</v>
       </c>
       <c r="H21">
         <v>7900</v>
@@ -1943,19 +1949,19 @@
         <v>5577382</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1972,13 +1978,13 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22">
         <v>220</v>
       </c>
       <c r="G22">
-        <v>660.236526383222</v>
+        <v>659.864416670655</v>
       </c>
       <c r="H22">
         <v>7900</v>
@@ -2011,19 +2017,19 @@
         <v>5577382</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2040,13 +2046,13 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <v>220</v>
       </c>
       <c r="G23">
-        <v>660.236526383222</v>
+        <v>659.864416670655</v>
       </c>
       <c r="H23">
         <v>7900</v>
@@ -2079,19 +2085,19 @@
         <v>5577382</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2108,13 +2114,13 @@
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24">
         <v>220</v>
       </c>
       <c r="G24">
-        <v>660.236526383222</v>
+        <v>659.864416670655</v>
       </c>
       <c r="H24">
         <v>7900</v>
@@ -2147,19 +2153,19 @@
         <v>5577382</v>
       </c>
       <c r="R24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2176,13 +2182,13 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F25">
         <v>220</v>
       </c>
       <c r="G25">
-        <v>660.236526383222</v>
+        <v>659.864416670655</v>
       </c>
       <c r="H25">
         <v>7900</v>
@@ -2215,19 +2221,19 @@
         <v>5577382</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2244,13 +2250,13 @@
         <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>220</v>
       </c>
       <c r="G26">
-        <v>660.236526383222</v>
+        <v>659.864416670655</v>
       </c>
       <c r="H26">
         <v>7900</v>
@@ -2283,19 +2289,19 @@
         <v>5577382</v>
       </c>
       <c r="R26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2312,13 +2318,13 @@
         <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F27">
         <v>220</v>
       </c>
       <c r="G27">
-        <v>696.67201025419</v>
+        <v>696.2999005416229</v>
       </c>
       <c r="H27">
         <v>7900</v>
@@ -2351,19 +2357,19 @@
         <v>5577382</v>
       </c>
       <c r="R27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2380,13 +2386,13 @@
         <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>220</v>
       </c>
       <c r="G28">
-        <v>696.67201025419</v>
+        <v>696.2999005416229</v>
       </c>
       <c r="H28">
         <v>7900</v>
@@ -2419,19 +2425,19 @@
         <v>5577382</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2448,13 +2454,13 @@
         <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F29">
         <v>220</v>
       </c>
       <c r="G29">
-        <v>696.67201025419</v>
+        <v>696.2999005416229</v>
       </c>
       <c r="H29">
         <v>7900</v>
@@ -2487,19 +2493,19 @@
         <v>5577382</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2516,13 +2522,13 @@
         <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F30">
         <v>220</v>
       </c>
       <c r="G30">
-        <v>696.67201025419</v>
+        <v>696.2999005416229</v>
       </c>
       <c r="H30">
         <v>7900</v>
@@ -2555,19 +2561,19 @@
         <v>5577382</v>
       </c>
       <c r="R30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2584,13 +2590,13 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F31">
         <v>220</v>
       </c>
       <c r="G31">
-        <v>696.67201025419</v>
+        <v>696.2999005416229</v>
       </c>
       <c r="H31">
         <v>7900</v>
@@ -2623,19 +2629,19 @@
         <v>5577382</v>
       </c>
       <c r="R31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2652,13 +2658,13 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>220</v>
       </c>
       <c r="G32">
-        <v>616.946876919009</v>
+        <v>624.951154137491</v>
       </c>
       <c r="H32">
         <v>7900</v>
@@ -2691,19 +2697,19 @@
         <v>5577382</v>
       </c>
       <c r="R32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2720,13 +2726,13 @@
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F33">
         <v>220</v>
       </c>
       <c r="G33">
-        <v>616.946876919009</v>
+        <v>624.951154137491</v>
       </c>
       <c r="H33">
         <v>7900</v>
@@ -2759,19 +2765,19 @@
         <v>5577382</v>
       </c>
       <c r="R33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2788,13 +2794,13 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F34">
         <v>220</v>
       </c>
       <c r="G34">
-        <v>616.946876919009</v>
+        <v>624.951154137491</v>
       </c>
       <c r="H34">
         <v>7900</v>
@@ -2827,19 +2833,19 @@
         <v>5577382</v>
       </c>
       <c r="R34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2856,13 +2862,13 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <v>220</v>
       </c>
       <c r="G35">
-        <v>616.946876919009</v>
+        <v>624.951154137491</v>
       </c>
       <c r="H35">
         <v>7900</v>
@@ -2895,19 +2901,19 @@
         <v>5577382</v>
       </c>
       <c r="R35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2924,13 +2930,13 @@
         <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F36">
         <v>220</v>
       </c>
       <c r="G36">
-        <v>616.946876919009</v>
+        <v>624.951154137491</v>
       </c>
       <c r="H36">
         <v>7900</v>
@@ -2963,19 +2969,19 @@
         <v>5577382</v>
       </c>
       <c r="R36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2992,7 +2998,7 @@
         <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F37">
         <v>203</v>
@@ -3031,19 +3037,19 @@
         <v>5577382</v>
       </c>
       <c r="R37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3060,7 +3066,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F38">
         <v>203</v>
@@ -3099,19 +3105,19 @@
         <v>5577382</v>
       </c>
       <c r="R38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3128,7 +3134,7 @@
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <v>203</v>
@@ -3167,19 +3173,19 @@
         <v>5577382</v>
       </c>
       <c r="R39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3196,7 +3202,7 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F40">
         <v>203</v>
@@ -3235,19 +3241,19 @@
         <v>5577382</v>
       </c>
       <c r="R40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3264,7 +3270,7 @@
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F41">
         <v>203</v>
@@ -3303,19 +3309,19 @@
         <v>5577382</v>
       </c>
       <c r="R41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3332,7 +3338,7 @@
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <v>183</v>
@@ -3371,19 +3377,19 @@
         <v>5577382</v>
       </c>
       <c r="R42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3400,7 +3406,7 @@
         <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43">
         <v>183</v>
@@ -3439,19 +3445,19 @@
         <v>5577382</v>
       </c>
       <c r="R43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3468,7 +3474,7 @@
         <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F44">
         <v>183</v>
@@ -3507,19 +3513,19 @@
         <v>5577382</v>
       </c>
       <c r="R44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3536,7 +3542,7 @@
         <v>40</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F45">
         <v>183</v>
@@ -3575,19 +3581,19 @@
         <v>5577382</v>
       </c>
       <c r="R45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3604,7 +3610,7 @@
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F46">
         <v>183</v>
@@ -3643,19 +3649,19 @@
         <v>5577382</v>
       </c>
       <c r="R46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3672,7 +3678,7 @@
         <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>188</v>
@@ -3711,19 +3717,19 @@
         <v>5577382</v>
       </c>
       <c r="R47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3740,7 +3746,7 @@
         <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F48">
         <v>188</v>
@@ -3779,19 +3785,19 @@
         <v>5577382</v>
       </c>
       <c r="R48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3808,7 +3814,7 @@
         <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F49">
         <v>188</v>
@@ -3847,19 +3853,19 @@
         <v>5577382</v>
       </c>
       <c r="R49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3876,7 +3882,7 @@
         <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F50">
         <v>188</v>
@@ -3915,19 +3921,19 @@
         <v>5577382</v>
       </c>
       <c r="R50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3944,7 +3950,7 @@
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F51">
         <v>188</v>
@@ -3983,19 +3989,19 @@
         <v>5577382</v>
       </c>
       <c r="R51" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4012,7 +4018,7 @@
         <v>42</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F52">
         <v>216</v>
@@ -4051,19 +4057,19 @@
         <v>5577382</v>
       </c>
       <c r="R52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4080,7 +4086,7 @@
         <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F53">
         <v>216</v>
@@ -4119,19 +4125,19 @@
         <v>5577382</v>
       </c>
       <c r="R53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S53" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4148,7 +4154,7 @@
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F54">
         <v>216</v>
@@ -4187,19 +4193,19 @@
         <v>5577382</v>
       </c>
       <c r="R54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4216,7 +4222,7 @@
         <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F55">
         <v>216</v>
@@ -4255,19 +4261,19 @@
         <v>5577382</v>
       </c>
       <c r="R55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4284,7 +4290,7 @@
         <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F56">
         <v>216</v>
@@ -4323,19 +4329,699 @@
         <v>5577382</v>
       </c>
       <c r="R56" t="s">
+        <v>46</v>
+      </c>
+      <c r="S56" t="s">
+        <v>47</v>
+      </c>
+      <c r="T56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U56" t="s">
+        <v>49</v>
+      </c>
+      <c r="V56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>243</v>
+      </c>
+      <c r="G57">
+        <v>812.674796747967</v>
+      </c>
+      <c r="H57">
+        <v>9800</v>
+      </c>
+      <c r="I57">
+        <v>4441</v>
+      </c>
+      <c r="J57">
+        <v>24.390243902439</v>
+      </c>
+      <c r="K57">
+        <v>45.5284552845528</v>
+      </c>
+      <c r="L57">
+        <v>231</v>
+      </c>
+      <c r="M57">
+        <v>837.2</v>
+      </c>
+      <c r="N57">
+        <v>1094.1</v>
+      </c>
+      <c r="O57">
+        <v>2565.18</v>
+      </c>
+      <c r="P57">
+        <v>1775652</v>
+      </c>
+      <c r="Q57">
+        <v>5577382</v>
+      </c>
+      <c r="R57" t="s">
+        <v>46</v>
+      </c>
+      <c r="S57" t="s">
+        <v>47</v>
+      </c>
+      <c r="T57" t="s">
+        <v>48</v>
+      </c>
+      <c r="U57" t="s">
+        <v>49</v>
+      </c>
+      <c r="V57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>243</v>
+      </c>
+      <c r="G58">
+        <v>812.674796747967</v>
+      </c>
+      <c r="H58">
+        <v>9800</v>
+      </c>
+      <c r="I58">
+        <v>4441</v>
+      </c>
+      <c r="J58">
+        <v>24.390243902439</v>
+      </c>
+      <c r="K58">
+        <v>45.5284552845528</v>
+      </c>
+      <c r="L58">
+        <v>231</v>
+      </c>
+      <c r="M58">
+        <v>837.2</v>
+      </c>
+      <c r="N58">
+        <v>1094.1</v>
+      </c>
+      <c r="O58">
+        <v>2565.18</v>
+      </c>
+      <c r="P58">
+        <v>1775652</v>
+      </c>
+      <c r="Q58">
+        <v>5577382</v>
+      </c>
+      <c r="R58" t="s">
+        <v>46</v>
+      </c>
+      <c r="S58" t="s">
+        <v>47</v>
+      </c>
+      <c r="T58" t="s">
+        <v>48</v>
+      </c>
+      <c r="U58" t="s">
+        <v>49</v>
+      </c>
+      <c r="V58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>243</v>
+      </c>
+      <c r="G59">
+        <v>812.674796747967</v>
+      </c>
+      <c r="H59">
+        <v>9800</v>
+      </c>
+      <c r="I59">
+        <v>4441</v>
+      </c>
+      <c r="J59">
+        <v>24.390243902439</v>
+      </c>
+      <c r="K59">
+        <v>45.5284552845528</v>
+      </c>
+      <c r="L59">
+        <v>231</v>
+      </c>
+      <c r="M59">
+        <v>837.2</v>
+      </c>
+      <c r="N59">
+        <v>1094.1</v>
+      </c>
+      <c r="O59">
+        <v>2565.18</v>
+      </c>
+      <c r="P59">
+        <v>1775652</v>
+      </c>
+      <c r="Q59">
+        <v>5577382</v>
+      </c>
+      <c r="R59" t="s">
+        <v>46</v>
+      </c>
+      <c r="S59" t="s">
+        <v>47</v>
+      </c>
+      <c r="T59" t="s">
+        <v>48</v>
+      </c>
+      <c r="U59" t="s">
+        <v>49</v>
+      </c>
+      <c r="V59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>243</v>
+      </c>
+      <c r="G60">
+        <v>812.674796747967</v>
+      </c>
+      <c r="H60">
+        <v>9800</v>
+      </c>
+      <c r="I60">
+        <v>4441</v>
+      </c>
+      <c r="J60">
+        <v>24.390243902439</v>
+      </c>
+      <c r="K60">
+        <v>45.5284552845528</v>
+      </c>
+      <c r="L60">
+        <v>231</v>
+      </c>
+      <c r="M60">
+        <v>837.2</v>
+      </c>
+      <c r="N60">
+        <v>1094.1</v>
+      </c>
+      <c r="O60">
+        <v>2565.18</v>
+      </c>
+      <c r="P60">
+        <v>1775652</v>
+      </c>
+      <c r="Q60">
+        <v>5577382</v>
+      </c>
+      <c r="R60" t="s">
+        <v>46</v>
+      </c>
+      <c r="S60" t="s">
+        <v>47</v>
+      </c>
+      <c r="T60" t="s">
+        <v>48</v>
+      </c>
+      <c r="U60" t="s">
+        <v>49</v>
+      </c>
+      <c r="V60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>243</v>
+      </c>
+      <c r="G61">
+        <v>812.674796747967</v>
+      </c>
+      <c r="H61">
+        <v>9800</v>
+      </c>
+      <c r="I61">
+        <v>4441</v>
+      </c>
+      <c r="J61">
+        <v>24.390243902439</v>
+      </c>
+      <c r="K61">
+        <v>45.5284552845528</v>
+      </c>
+      <c r="L61">
+        <v>231</v>
+      </c>
+      <c r="M61">
+        <v>837.2</v>
+      </c>
+      <c r="N61">
+        <v>1094.1</v>
+      </c>
+      <c r="O61">
+        <v>2565.18</v>
+      </c>
+      <c r="P61">
+        <v>1775652</v>
+      </c>
+      <c r="Q61">
+        <v>5577382</v>
+      </c>
+      <c r="R61" t="s">
+        <v>46</v>
+      </c>
+      <c r="S61" t="s">
+        <v>47</v>
+      </c>
+      <c r="T61" t="s">
+        <v>48</v>
+      </c>
+      <c r="U61" t="s">
+        <v>49</v>
+      </c>
+      <c r="V61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
         <v>44</v>
       </c>
-      <c r="S56" t="s">
-        <v>45</v>
-      </c>
-      <c r="T56" t="s">
-        <v>46</v>
-      </c>
-      <c r="U56" t="s">
-        <v>47</v>
-      </c>
-      <c r="V56" t="s">
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62">
+        <v>233</v>
+      </c>
+      <c r="G62">
+        <v>894.167334567624</v>
+      </c>
+      <c r="H62">
+        <v>17329</v>
+      </c>
+      <c r="I62">
+        <v>4706</v>
+      </c>
+      <c r="J62">
+        <v>24.4094488188976</v>
+      </c>
+      <c r="K62">
+        <v>45.6692913385827</v>
+      </c>
+      <c r="L62">
+        <v>216</v>
+      </c>
+      <c r="M62">
+        <v>843.3</v>
+      </c>
+      <c r="N62">
+        <v>1009.3</v>
+      </c>
+      <c r="O62">
+        <v>2149.4</v>
+      </c>
+      <c r="P62">
+        <v>1775652</v>
+      </c>
+      <c r="Q62">
+        <v>5577382</v>
+      </c>
+      <c r="R62" t="s">
+        <v>46</v>
+      </c>
+      <c r="S62" t="s">
+        <v>47</v>
+      </c>
+      <c r="T62" t="s">
+        <v>48</v>
+      </c>
+      <c r="U62" t="s">
+        <v>49</v>
+      </c>
+      <c r="V62" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63">
+        <v>233</v>
+      </c>
+      <c r="G63">
+        <v>894.167334567624</v>
+      </c>
+      <c r="H63">
+        <v>17329</v>
+      </c>
+      <c r="I63">
+        <v>4706</v>
+      </c>
+      <c r="J63">
+        <v>24.4094488188976</v>
+      </c>
+      <c r="K63">
+        <v>45.6692913385827</v>
+      </c>
+      <c r="L63">
+        <v>216</v>
+      </c>
+      <c r="M63">
+        <v>843.3</v>
+      </c>
+      <c r="N63">
+        <v>1009.3</v>
+      </c>
+      <c r="O63">
+        <v>2149.4</v>
+      </c>
+      <c r="P63">
+        <v>1775652</v>
+      </c>
+      <c r="Q63">
+        <v>5577382</v>
+      </c>
+      <c r="R63" t="s">
+        <v>46</v>
+      </c>
+      <c r="S63" t="s">
+        <v>47</v>
+      </c>
+      <c r="T63" t="s">
+        <v>48</v>
+      </c>
+      <c r="U63" t="s">
+        <v>49</v>
+      </c>
+      <c r="V63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64">
+        <v>233</v>
+      </c>
+      <c r="G64">
+        <v>894.167334567624</v>
+      </c>
+      <c r="H64">
+        <v>17329</v>
+      </c>
+      <c r="I64">
+        <v>4706</v>
+      </c>
+      <c r="J64">
+        <v>24.4094488188976</v>
+      </c>
+      <c r="K64">
+        <v>45.6692913385827</v>
+      </c>
+      <c r="L64">
+        <v>216</v>
+      </c>
+      <c r="M64">
+        <v>843.3</v>
+      </c>
+      <c r="N64">
+        <v>1009.3</v>
+      </c>
+      <c r="O64">
+        <v>2149.4</v>
+      </c>
+      <c r="P64">
+        <v>1775652</v>
+      </c>
+      <c r="Q64">
+        <v>5577382</v>
+      </c>
+      <c r="R64" t="s">
+        <v>46</v>
+      </c>
+      <c r="S64" t="s">
+        <v>47</v>
+      </c>
+      <c r="T64" t="s">
+        <v>48</v>
+      </c>
+      <c r="U64" t="s">
+        <v>49</v>
+      </c>
+      <c r="V64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65">
+        <v>233</v>
+      </c>
+      <c r="G65">
+        <v>894.167334567624</v>
+      </c>
+      <c r="H65">
+        <v>17329</v>
+      </c>
+      <c r="I65">
+        <v>4706</v>
+      </c>
+      <c r="J65">
+        <v>24.4094488188976</v>
+      </c>
+      <c r="K65">
+        <v>45.6692913385827</v>
+      </c>
+      <c r="L65">
+        <v>216</v>
+      </c>
+      <c r="M65">
+        <v>843.3</v>
+      </c>
+      <c r="N65">
+        <v>1009.3</v>
+      </c>
+      <c r="O65">
+        <v>2149.4</v>
+      </c>
+      <c r="P65">
+        <v>1775652</v>
+      </c>
+      <c r="Q65">
+        <v>5577382</v>
+      </c>
+      <c r="R65" t="s">
+        <v>46</v>
+      </c>
+      <c r="S65" t="s">
+        <v>47</v>
+      </c>
+      <c r="T65" t="s">
+        <v>48</v>
+      </c>
+      <c r="U65" t="s">
+        <v>49</v>
+      </c>
+      <c r="V65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66">
+        <v>233</v>
+      </c>
+      <c r="G66">
+        <v>894.167334567624</v>
+      </c>
+      <c r="H66">
+        <v>17329</v>
+      </c>
+      <c r="I66">
+        <v>4706</v>
+      </c>
+      <c r="J66">
+        <v>24.4094488188976</v>
+      </c>
+      <c r="K66">
+        <v>45.6692913385827</v>
+      </c>
+      <c r="L66">
+        <v>216</v>
+      </c>
+      <c r="M66">
+        <v>843.3</v>
+      </c>
+      <c r="N66">
+        <v>1009.3</v>
+      </c>
+      <c r="O66">
+        <v>2149.4</v>
+      </c>
+      <c r="P66">
+        <v>1775652</v>
+      </c>
+      <c r="Q66">
+        <v>5577382</v>
+      </c>
+      <c r="R66" t="s">
+        <v>46</v>
+      </c>
+      <c r="S66" t="s">
+        <v>47</v>
+      </c>
+      <c r="T66" t="s">
+        <v>48</v>
+      </c>
+      <c r="U66" t="s">
+        <v>49</v>
+      </c>
+      <c r="V66" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
